--- a/Master-functional-testcases/ID-Authentication/TC_Auth.xlsx
+++ b/Master-functional-testcases/ID-Authentication/TC_Auth.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MOSIP\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jane.rose\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1.2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="126">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -318,6 +319,90 @@
   </si>
   <si>
     <t>ID Repo_04</t>
+  </si>
+  <si>
+    <t>PM_Policy_01</t>
+  </si>
+  <si>
+    <t>Partner Mgmt</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a policy with attribute staticTokenType </t>
+  </si>
+  <si>
+    <t>Policy Manager should be able to create the policy</t>
+  </si>
+  <si>
+    <t>Create a policy with staticTokenType as 'Random' and perform auth</t>
+  </si>
+  <si>
+    <t>Random token should be generated everytime</t>
+  </si>
+  <si>
+    <t>Create a policy with staticTokenType as 'Partner' and perform auth</t>
+  </si>
+  <si>
+    <t>Token should be generated using the Partner ID and UIN</t>
+  </si>
+  <si>
+    <t>Create a policy with staticTokenType as 'Policy' and perform auth</t>
+  </si>
+  <si>
+    <t>Token should be generated using the  Policy ID and UIN</t>
+  </si>
+  <si>
+    <t>Create a policy with staticTokenType as 'Policy Group' and perform auth</t>
+  </si>
+  <si>
+    <t>Token should be generated using the  Policy Group ID and UIN</t>
+  </si>
+  <si>
+    <t>Verify auth request accepts consent token in the request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consent token should be passed as part of the auth request </t>
+  </si>
+  <si>
+    <t>IDA_DB_01</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Verify uin_hash column in ida table has been changed to id_hash</t>
+  </si>
+  <si>
+    <t>Column name should be changed to id_hash</t>
+  </si>
+  <si>
+    <t>ID Repo_DB_01</t>
+  </si>
+  <si>
+    <t>Verify uin_hash column in id repo table has been changed to id_hash</t>
+  </si>
+  <si>
+    <t>ID Repo_Lock_01</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>Verify if the UIN is locked, the corresponding VID is also locked for auth</t>
+  </si>
+  <si>
+    <t>The corresponding VID should also be  locked for auth</t>
+  </si>
+  <si>
+    <t>ID Repo_Lock_02</t>
+  </si>
+  <si>
+    <t>Verify if the VID is locked, the corresponding UIN is also locked for auth</t>
+  </si>
+  <si>
+    <t>The corresponding UIN should also be  locked for auth</t>
   </si>
 </sst>
 </file>
@@ -667,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -1501,4 +1586,265 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B103">
+      <formula1>"Admin, IDA, ID Repo, Partner Mgmt, Pre Registration, Registration Client, Registration Processor, Resident Services"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G299">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D299">
+      <formula1>"Acceptance, Functional, Smoke, Security, Performance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B104:B299">
+      <formula1>"Admin, IDA, Partner Mgmt, Pre Registration, Registration Client, Registration Processor, Resident Services"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Master-functional-testcases/ID-Authentication/TC_Auth.xlsx
+++ b/Master-functional-testcases/ID-Authentication/TC_Auth.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jane.rose\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mosip\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="159">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -454,6 +454,57 @@
   </si>
   <si>
     <t>Verify if an UIN is reactivated all the corresponding VID's are also reactivated</t>
+  </si>
+  <si>
+    <t>Test with multiple online verification partners (eg: IDA1, IDA2 etc)</t>
+  </si>
+  <si>
+    <t>Verify update credential request are sent to the UIN + multipe VID's</t>
+  </si>
+  <si>
+    <t>Change the policy attributes in data share policy and verify.</t>
+  </si>
+  <si>
+    <t>Test with multiple bio extractors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify if bioextractor takes the data from cache if there is no change/update in the UIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auth Txn: - future release
+1. one entry for one request
+2. request / response signature - table , history
+</t>
+  </si>
+  <si>
+    <t>Online verification partners to have individual data share policy</t>
+  </si>
+  <si>
+    <t>IDA_Auth_20</t>
+  </si>
+  <si>
+    <t>IDA_Auth_21</t>
+  </si>
+  <si>
+    <t>MOSIP should support multiple OVP</t>
+  </si>
+  <si>
+    <t>Credentials should be sent to the UIN and multiple temporary VID</t>
+  </si>
+  <si>
+    <t>Change is policy should get reflected during data share</t>
+  </si>
+  <si>
+    <t>MOSIP should support multiple bio extractors</t>
+  </si>
+  <si>
+    <t>Bioextractor must take the values from cache unless changed</t>
+  </si>
+  <si>
+    <t>OVP should be able to choose their own policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one entry for multiple modality auth should be present </t>
   </si>
 </sst>
 </file>
@@ -518,11 +569,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -1644,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2064,6 +2121,152 @@
         <v>125</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="3"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B103">
@@ -2080,5 +2283,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Master-functional-testcases/ID-Authentication/TC_Auth.xlsx
+++ b/Master-functional-testcases/ID-Authentication/TC_Auth.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mosip\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jane.rose\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
     <sheet name="1.2" sheetId="2" r:id="rId2"/>
+    <sheet name="1.1.4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="196">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -505,6 +506,119 @@
   </si>
   <si>
     <t xml:space="preserve">Only one entry for multiple modality auth should be present </t>
+  </si>
+  <si>
+    <t>Reviewed</t>
+  </si>
+  <si>
+    <t>FP Auth</t>
+  </si>
+  <si>
+    <t>Verify IDA utility supports auth using Fingerprint slab device using Mock MDS</t>
+  </si>
+  <si>
+    <t>IDA utility should support auth using Fingerprint slab device using Mock MDS</t>
+  </si>
+  <si>
+    <t>Verify IDA utility supports auth using Fingerprint slab device using real MDS</t>
+  </si>
+  <si>
+    <t>IDA utility should support auth using Fingerprint slab device using real MDS</t>
+  </si>
+  <si>
+    <t>Verify IDA utility supports auth using Fingerprint slab device of multiple vendors (Syncbyte/Mantra)</t>
+  </si>
+  <si>
+    <t>IDA utility should support auth using Fingerprint slab device of multiple vendors (Syncbyte/Mantra)</t>
+  </si>
+  <si>
+    <t>Verify thumbprint is used for encryption/decryption</t>
+  </si>
+  <si>
+    <t>Auth should be successful</t>
+  </si>
+  <si>
+    <t>Give  an incorrect thumbprint in the IDA request</t>
+  </si>
+  <si>
+    <t>Auth should fail with decryption error</t>
+  </si>
+  <si>
+    <t>Verify the request/response signatures of the auth request</t>
+  </si>
+  <si>
+    <t>The signatures should be right</t>
+  </si>
+  <si>
+    <t>Verify VID is not consumed after OTP request</t>
+  </si>
+  <si>
+    <t>VID should be consumed only after auth request</t>
+  </si>
+  <si>
+    <t>Perform multifactor authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A single entry must be present in the
+auth history for all the factors used.
+Request, response signatures also to be returned. </t>
+  </si>
+  <si>
+    <t>PM_Auth Integration</t>
+  </si>
+  <si>
+    <t>Deactivate an active partner with which auth was done and perform authentication</t>
+  </si>
+  <si>
+    <t>Notification must be sent from PM to auth and user should not be able to perform auth</t>
+  </si>
+  <si>
+    <t>Edit an auth policy and perform authentication</t>
+  </si>
+  <si>
+    <t>Notification must be sent from PM to auth and user should  be able to perform auth based on the new policy</t>
+  </si>
+  <si>
+    <t>Map the partner to a different policy and perform auth</t>
+  </si>
+  <si>
+    <t>Expire MISP license and perform auth</t>
+  </si>
+  <si>
+    <t>Notification must be sent from PM to auth and user should  not be able to perform auth based on the new policy</t>
+  </si>
+  <si>
+    <t>Update the partner certificate and perform kyc</t>
+  </si>
+  <si>
+    <t>Notification must be sent from PM to auth and user should  not be able to perform kyc  based on the new certificate</t>
+  </si>
+  <si>
+    <t>Verify IDA is able to support multiple IDA instances</t>
+  </si>
+  <si>
+    <t>Change the policy attributes in data share policy and verify</t>
+  </si>
+  <si>
+    <t>IDA should be able to support multiple IDA instances</t>
+  </si>
+  <si>
+    <t>Credential requests must be sent to the UIN and all its corresponding temporary VID's</t>
+  </si>
+  <si>
+    <t>Changes should be reflected</t>
+  </si>
+  <si>
+    <t>IDA should support multiple bio extractors</t>
+  </si>
+  <si>
+    <t>Data should be taken from cache unless there is no update</t>
+  </si>
+  <si>
+    <t>Verify web sub works even after 24 hours</t>
+  </si>
+  <si>
+    <t>Web subscription should work without restart</t>
   </si>
 </sst>
 </file>
@@ -542,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -565,11 +679,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -580,6 +705,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -2285,4 +2414,557 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20">
+      <formula1>"Admin, Credential Services, IDA, Partner Mgmt, Pre Registration, Registration Client, Registration Processor, Resident Services"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H20">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20">
+      <formula1>"Acceptance, Functional, Smoke, Security, Performance"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Master-functional-testcases/ID-Authentication/TC_Auth.xlsx
+++ b/Master-functional-testcases/ID-Authentication/TC_Auth.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="3360"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>MOSIP should be able to perform eKYC for  the individual using his VID</t>
   </si>
   <si>
-    <t>To perform eKYC for an individual with his demographics using his VID</t>
-  </si>
-  <si>
     <t>To perform eKYC for an individual with his biometrics using his VID</t>
   </si>
   <si>
@@ -619,6 +616,9 @@
   </si>
   <si>
     <t>Web subscription should work without restart</t>
+  </si>
+  <si>
+    <t>To perform eKYC for an individual with his demographics using his temporary VID</t>
   </si>
 </sst>
 </file>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,16 +1031,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1049,21 +1049,21 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1072,21 +1072,21 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1095,21 +1095,21 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1118,21 +1118,21 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1141,21 +1141,21 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1164,21 +1164,21 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -1187,21 +1187,21 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -1210,21 +1210,21 @@
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -1233,21 +1233,21 @@
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -1256,21 +1256,21 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1279,21 +1279,21 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
@@ -1302,182 +1302,182 @@
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
@@ -1486,21 +1486,21 @@
         <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
@@ -1509,21 +1509,21 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
@@ -1532,21 +1532,21 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
         <v>31</v>
@@ -1555,260 +1555,260 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F25" t="s">
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
         <v>35</v>
       </c>
-      <c r="F27" t="s">
-        <v>36</v>
-      </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" t="s">
         <v>80</v>
       </c>
-      <c r="F35" t="s">
-        <v>81</v>
-      </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -1872,522 +1872,522 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
         <v>103</v>
-      </c>
-      <c r="F3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
         <v>105</v>
-      </c>
-      <c r="F4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
         <v>107</v>
-      </c>
-      <c r="F5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
         <v>109</v>
-      </c>
-      <c r="F6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
         <v>126</v>
-      </c>
-      <c r="F7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
         <v>111</v>
-      </c>
-      <c r="F8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
         <v>128</v>
-      </c>
-      <c r="F9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" t="s">
         <v>130</v>
-      </c>
-      <c r="F10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
         <v>132</v>
-      </c>
-      <c r="F11" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" t="s">
         <v>134</v>
-      </c>
-      <c r="F12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" t="s">
         <v>136</v>
-      </c>
-      <c r="F13" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" t="s">
         <v>138</v>
-      </c>
-      <c r="F14" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" t="s">
         <v>140</v>
-      </c>
-      <c r="F15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
         <v>113</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
         <v>114</v>
       </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
         <v>117</v>
       </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>118</v>
-      </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
         <v>119</v>
       </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
         <v>120</v>
       </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>121</v>
-      </c>
-      <c r="F19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
         <v>123</v>
       </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>124</v>
-      </c>
-      <c r="F20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2420,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,501 +2455,501 @@
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
